--- a/draft-02/manuscript_ver3-4/results/model-ANOVA-for-Tony.xlsx
+++ b/draft-02/manuscript_ver3-4/results/model-ANOVA-for-Tony.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Cape-vs-SWA\draft-02\manuscript_ver3-4\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruanvanmazijk/Desktop/Cape-vs-SWA/draft-02/manuscript_ver3-4/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{16B7C706-023F-4E84-A2CA-9F6BF725936C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316CE2C7-212B-F34E-9F80-3209512665C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="model-ANOVA-for-Tony" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -25,9 +33,6 @@
     <t>QDS_richness</t>
   </si>
   <si>
-    <t>Residuals</t>
-  </si>
-  <si>
     <t>MAP</t>
   </si>
   <si>
@@ -101,12 +106,18 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>(Residuals)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.000"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -583,13 +594,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -944,60 +956,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.75300906441188598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>0.75300906441188598</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>0.13550179877989599</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="5">
         <v>1.17767525558728E-33</v>
       </c>
       <c r="E4" t="str">
@@ -1005,14 +1017,14 @@
         <v>*</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6">
         <v>5.7949119508203098E-2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="5">
         <v>5.8047778874719099E-16</v>
       </c>
       <c r="E5" t="str">
@@ -1020,14 +1032,14 @@
         <v>*</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6">
         <v>1.4899580851853399E-2</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="5">
         <v>3.1736387016826602E-5</v>
       </c>
       <c r="E6" t="str">
@@ -1035,14 +1047,14 @@
         <v>*</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6">
         <v>1.1268185399972401E-2</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="5">
         <v>2.9170094026798802E-4</v>
       </c>
       <c r="E7" t="str">
@@ -1050,14 +1062,14 @@
         <v>*</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6">
         <v>6.7499338949415103E-3</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>4.9863915386396699E-3</v>
       </c>
       <c r="E8" t="str">
@@ -1065,14 +1077,14 @@
         <v>*</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6">
         <v>5.5873322741594898E-3</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <v>1.05987837464976E-2</v>
       </c>
       <c r="E9" t="str">
@@ -1080,14 +1092,14 @@
         <v>*</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6">
         <v>5.5740546988702301E-3</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <v>1.069133737117E-2</v>
       </c>
       <c r="E10" t="str">
@@ -1095,14 +1107,14 @@
         <v>*</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6">
         <v>3.08224534629826E-3</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <v>5.7467807932841897E-2</v>
       </c>
       <c r="E11" t="str">
@@ -1110,14 +1122,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6">
         <v>2.8839317590612801E-3</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5">
         <v>6.6102904563501805E-2</v>
       </c>
       <c r="E12" t="str">
@@ -1125,14 +1137,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6">
         <v>2.4344136420820701E-3</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="5">
         <v>9.12788825612528E-2</v>
       </c>
       <c r="E13" t="str">
@@ -1140,14 +1152,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="C14" s="6">
         <v>8.2690036705717403E-4</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="5">
         <v>0.324763986232256</v>
       </c>
       <c r="E14" t="str">
@@ -1155,14 +1167,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1">
+        <v>12</v>
+      </c>
+      <c r="C15" s="6">
         <v>2.33439065718301E-4</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="5">
         <v>0.60076081281530502</v>
       </c>
       <c r="E15" t="str">
@@ -1170,28 +1182,30 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C16" s="6"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.62438962847669199</v>
+      </c>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
         <v>1</v>
       </c>
-      <c r="C17">
-        <v>0.62438962847669199</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18">
+      <c r="C18" s="6">
         <v>0.19411224499633101</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="5">
         <v>9.6632941027498904E-15</v>
       </c>
       <c r="E18" t="str">
@@ -1199,14 +1213,14 @@
         <v>*</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="C19" s="6">
         <v>4.7201277803042598E-2</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="5">
         <v>5.8765265100177803E-5</v>
       </c>
       <c r="E19" t="str">
@@ -1214,14 +1228,14 @@
         <v>*</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="C20" s="6">
         <v>4.4401038578075501E-2</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="5">
         <v>9.5861329983946495E-5</v>
       </c>
       <c r="E20" t="str">
@@ -1229,14 +1243,14 @@
         <v>*</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21">
+        <v>14</v>
+      </c>
+      <c r="C21" s="6">
         <v>2.0109504621131698E-2</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="5">
         <v>8.0542766215507804E-3</v>
       </c>
       <c r="E21" t="str">
@@ -1244,14 +1258,14 @@
         <v>*</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="C22" s="6">
         <v>1.22314003978162E-2</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="5">
         <v>3.8176975181068301E-2</v>
       </c>
       <c r="E22" t="str">
@@ -1259,14 +1273,14 @@
         <v>*</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="C23" s="6">
         <v>1.0925121638131899E-2</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="5">
         <v>4.9979271280973202E-2</v>
       </c>
       <c r="E23" t="str">
@@ -1274,14 +1288,14 @@
         <v>*</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="C24" s="6">
         <v>9.5247771592163796E-3</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="5">
         <v>6.70669095303843E-2</v>
       </c>
       <c r="E24" t="str">
@@ -1289,14 +1303,14 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25">
+        <v>15</v>
+      </c>
+      <c r="C25" s="6">
         <v>8.6481067047399097E-3</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="5">
         <v>8.0893947493740195E-2</v>
       </c>
       <c r="E25" t="str">
@@ -1304,14 +1318,14 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26">
+        <v>11</v>
+      </c>
+      <c r="C26" s="6">
         <v>7.8907790713371798E-3</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="5">
         <v>9.5346951663475996E-2</v>
       </c>
       <c r="E26" t="str">
@@ -1319,14 +1333,14 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="C27" s="6">
         <v>7.5965329513956997E-3</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="5">
         <v>0.101705453519783</v>
       </c>
       <c r="E27" t="str">
@@ -1334,14 +1348,14 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="C28" s="6">
         <v>6.6428865742654301E-3</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="5">
         <v>0.125757882917719</v>
       </c>
       <c r="E28" t="str">
@@ -1349,14 +1363,14 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29">
+        <v>16</v>
+      </c>
+      <c r="C29" s="6">
         <v>2.8611956098739798E-3</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="5">
         <v>0.31426070806970502</v>
       </c>
       <c r="E29" t="str">
@@ -1364,14 +1378,14 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="C30" s="6">
         <v>1.55592129514581E-3</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="5">
         <v>0.45779816195801398</v>
       </c>
       <c r="E30" t="str">
@@ -1379,14 +1393,14 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31">
+        <v>12</v>
+      </c>
+      <c r="C31" s="6">
         <v>1.17876008727553E-3</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="5">
         <v>0.51805290389466996</v>
       </c>
       <c r="E31" t="str">
@@ -1394,14 +1408,14 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="1">
+        <v>17</v>
+      </c>
+      <c r="C32" s="6">
         <v>7.3082403552744701E-4</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="5">
         <v>0.61073477859763603</v>
       </c>
       <c r="E32" t="str">
@@ -1409,28 +1423,30 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C33" s="6"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0.30588761359722799</v>
+      </c>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
         <v>1</v>
       </c>
-      <c r="C34">
-        <v>0.30588761359722799</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35">
+      <c r="C35" s="6">
         <v>0.27005847542725597</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="5">
         <v>2.9979227087815303E-8</v>
       </c>
       <c r="E35" t="str">
@@ -1438,14 +1454,14 @@
         <v>*</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="C36" s="6">
         <v>0.121317649738288</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="5">
         <v>5.6790637214600601E-5</v>
       </c>
       <c r="E36" t="str">
@@ -1453,14 +1469,14 @@
         <v>*</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37">
+        <v>14</v>
+      </c>
+      <c r="C37" s="6">
         <v>4.7953234020758101E-2</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="5">
         <v>7.8635569404064808E-3</v>
       </c>
       <c r="E37" t="str">
@@ -1468,14 +1484,14 @@
         <v>*</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38">
+        <v>19</v>
+      </c>
+      <c r="C38" s="6">
         <v>4.7142686306330298E-2</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="5">
         <v>8.3677518386945995E-3</v>
       </c>
       <c r="E38" t="str">
@@ -1483,14 +1499,14 @@
         <v>*</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="C39" s="6">
         <v>3.9910433043896597E-2</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="5">
         <v>1.4726932991472401E-2</v>
       </c>
       <c r="E39" t="str">
@@ -1498,14 +1514,14 @@
         <v>*</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40">
+        <v>17</v>
+      </c>
+      <c r="C40" s="6">
         <v>3.8950506688994198E-2</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="5">
         <v>1.5899201903639599E-2</v>
       </c>
       <c r="E40" t="str">
@@ -1513,14 +1529,14 @@
         <v>*</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41">
+        <v>20</v>
+      </c>
+      <c r="C41" s="6">
         <v>3.6112615212681998E-2</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="5">
         <v>1.9986214844433001E-2</v>
       </c>
       <c r="E41" t="str">
@@ -1528,14 +1544,14 @@
         <v>*</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42">
+        <v>15</v>
+      </c>
+      <c r="C42" s="6">
         <v>2.9561656311394801E-2</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="5">
         <v>3.4396986862952499E-2</v>
       </c>
       <c r="E42" t="str">
@@ -1543,14 +1559,14 @@
         <v>*</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="C43" s="6">
         <v>2.9296591832229501E-2</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="5">
         <v>3.5177989571069698E-2</v>
       </c>
       <c r="E43" t="str">
@@ -1558,14 +1574,14 @@
         <v>*</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44">
+        <v>8</v>
+      </c>
+      <c r="C44" s="6">
         <v>1.54003428701806E-2</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="5">
         <v>0.122697261237687</v>
       </c>
       <c r="E44" t="str">
@@ -1573,14 +1589,14 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45">
+        <v>7</v>
+      </c>
+      <c r="C45" s="6">
         <v>1.3826750395415401E-2</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="5">
         <v>0.143091780273257</v>
       </c>
       <c r="E45" t="str">
@@ -1588,14 +1604,14 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46">
+        <v>21</v>
+      </c>
+      <c r="C46" s="6">
         <v>3.2297566816361601E-3</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="5">
         <v>0.47538094657047603</v>
       </c>
       <c r="E46" t="str">
@@ -1603,14 +1619,14 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="C47" s="6">
         <v>1.35168787370837E-3</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="5">
         <v>0.64376108430558499</v>
       </c>
       <c r="E47" t="str">
